--- a/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_43_.xlsx
+++ b/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_43_.xlsx
@@ -136,7 +136,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -172,7 +172,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -186,7 +186,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -434,7 +434,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -879,7 +879,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1324,7 +1324,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1492,7 +1492,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -5737,7 +5737,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>

--- a/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_43_.xlsx
+++ b/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_43_.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -108,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -130,43 +132,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -176,220 +170,173 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>EMC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>EMC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -412,23 +359,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -438,106 +385,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>EMC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>EMC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -562,44 +507,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -609,232 +552,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>EMC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>EMC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -857,23 +783,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -883,106 +809,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>EMC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>EMC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,44 +931,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1054,232 +976,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>EMC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>EMC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1302,23 +1207,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1328,106 +1233,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>EMC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>EMC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,41 +1355,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.88988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="54.789887640449436"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1496,189 +1397,281 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>EMC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Stock Report</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Bay Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Storage Day</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status Name</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>37745</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>BMOU4820632</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
           <t>EMC</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Stock Report</t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Total number of conatiners:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0" t="n">
+        <v>1474173</v>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL INK DIRTY.</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>37830</v>
+        <v>37745</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>HMCU1088059</t>
+          <t>BMOU4820632</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1686,7 +1679,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -1724,17 +1717,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L8" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N8" s="0"/>
+      <c r="L8" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N8" s="4"/>
       <c r="O8" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
@@ -1748,7 +1741,7 @@
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="0" t="n">
-        <v>1474669</v>
+        <v>1474173</v>
       </c>
       <c r="V8" s="0" t="inlineStr">
         <is>
@@ -1762,7 +1755,7 @@
       </c>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY DUST.</t>
+          <t>F/B DIRTY BY DUST .</t>
         </is>
       </c>
       <c r="Y8" s="0" t="inlineStr">
@@ -1783,11 +1776,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>37876</v>
+        <v>37830</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>EMCU1377043</t>
+          <t>HMCU1088059</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -1833,17 +1826,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L9" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
+      <c r="L9" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N9" s="0"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
@@ -1857,22 +1850,46 @@
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="0" t="n">
-        <v>1474996</v>
-      </c>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+        <v>1474669</v>
+      </c>
+      <c r="V9" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>37914</v>
+        <v>37876</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>EISU1652087</t>
+          <t>EMCU1377043</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -1918,15 +1935,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L10" s="0" t="d">
+      <c r="L10" s="4" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N10" s="0"/>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="0" t="n">
         <v>84</v>
       </c>
@@ -1942,46 +1959,22 @@
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0" t="n">
-        <v>1475196</v>
-      </c>
-      <c r="V10" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W10" s="0" t="inlineStr">
-        <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY POWDER DUST</t>
-        </is>
-      </c>
-      <c r="Y10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1474996</v>
+      </c>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>37966</v>
+        <v>37892</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>DRYU4159544</t>
+          <t>HMCU1052930</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2027,17 +2020,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L11" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N11" s="0"/>
+      <c r="L11" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="0" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -2051,7 +2044,7 @@
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0" t="n">
-        <v>1475481</v>
+        <v>1475033</v>
       </c>
       <c r="V11" s="0" t="inlineStr">
         <is>
@@ -2065,7 +2058,7 @@
       </c>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST</t>
+          <t>FLOOR BOARD DIRTY BY DUST.</t>
         </is>
       </c>
       <c r="Y11" s="0" t="inlineStr">
@@ -2086,11 +2079,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>37967</v>
+        <v>37893</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>IMTU1101218</t>
+          <t>HMCU1001547</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2136,17 +2129,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L12" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N12" s="0"/>
+      <c r="L12" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="0" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>0</v>
@@ -2160,21 +2153,21 @@
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0" t="n">
-        <v>1475487</v>
+        <v>1475057</v>
       </c>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W12" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY.</t>
+          <t>FLOOR BOARD DIRTY BY DUST.</t>
         </is>
       </c>
       <c r="Y12" s="0" t="inlineStr">
@@ -2195,11 +2188,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>37967</v>
+        <v>37901</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>IMTU1101218</t>
+          <t>TCNU7359600</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2207,7 +2200,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -2245,17 +2238,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L13" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N13" s="0"/>
+      <c r="L13" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N13" s="4"/>
       <c r="O13" s="0" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>0</v>
@@ -2269,46 +2262,22 @@
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0" t="n">
-        <v>1475487</v>
-      </c>
-      <c r="V13" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
-      <c r="W13" s="0" t="inlineStr">
-        <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1475073</v>
+      </c>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>37967</v>
+        <v>37914</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>IMTU1101218</t>
+          <t>EISU1652087</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2354,17 +2323,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L14" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
+      <c r="L14" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N14" s="0"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="0" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0</v>
@@ -2378,7 +2347,7 @@
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0" t="n">
-        <v>1475487</v>
+        <v>1475196</v>
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
@@ -2392,7 +2361,7 @@
       </c>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
+          <t>FLOOR BOARD DIRTY BY POWDER DUST</t>
         </is>
       </c>
       <c r="Y14" s="0" t="inlineStr">
@@ -2413,11 +2382,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>37979</v>
+        <v>37966</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>EISU1735258</t>
+          <t>DRYU4159544</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2463,15 +2432,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L15" s="0" t="d">
+      <c r="L15" s="4" t="d">
         <v>2018-09-06T00:00:00</v>
       </c>
-      <c r="M15" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N15" s="0"/>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="0" t="n">
         <v>83</v>
       </c>
@@ -2487,21 +2456,21 @@
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="0" t="n">
-        <v>1475549</v>
+        <v>1475481</v>
       </c>
       <c r="V15" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W15" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
+          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST</t>
         </is>
       </c>
       <c r="Y15" s="0" t="inlineStr">
@@ -2522,11 +2491,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>37979</v>
+        <v>37967</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>EISU1735258</t>
+          <t>IMTU1101218</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2572,15 +2541,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L16" s="0" t="d">
+      <c r="L16" s="4" t="d">
         <v>2018-09-06T00:00:00</v>
       </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N16" s="0"/>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="0" t="n">
         <v>83</v>
       </c>
@@ -2596,7 +2565,7 @@
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0" t="n">
-        <v>1475549</v>
+        <v>1475487</v>
       </c>
       <c r="V16" s="0" t="inlineStr">
         <is>
@@ -2610,7 +2579,7 @@
       </c>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION BADLY.</t>
+          <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
       <c r="Y16" s="0" t="inlineStr">
@@ -2631,11 +2600,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>37979</v>
+        <v>37967</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>EISU1735258</t>
+          <t>IMTU1101218</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2681,15 +2650,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L17" s="0" t="d">
+      <c r="L17" s="4" t="d">
         <v>2018-09-06T00:00:00</v>
       </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N17" s="0"/>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="0" t="n">
         <v>83</v>
       </c>
@@ -2705,21 +2674,21 @@
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0" t="n">
-        <v>1475549</v>
+        <v>1475487</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W17" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; SCRATCHED</t>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
         </is>
       </c>
       <c r="Y17" s="0" t="inlineStr">
@@ -2740,11 +2709,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>38054</v>
+        <v>37967</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>SEGU5297740</t>
+          <t>IMTU1101218</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -2752,7 +2721,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -2767,7 +2736,7 @@
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -2790,17 +2759,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L18" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N18" s="0"/>
+      <c r="L18" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="0" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0</v>
@@ -2814,22 +2783,46 @@
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="0" t="n">
-        <v>1475976</v>
-      </c>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
+        <v>1475487</v>
+      </c>
+      <c r="V18" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W18" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
+        </is>
+      </c>
+      <c r="Y18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>38055</v>
+        <v>37979</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>HMCU1068617</t>
+          <t>EISU1735258</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -2852,7 +2845,7 @@
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
@@ -2875,17 +2868,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L19" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N19" s="0"/>
+      <c r="L19" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="0" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0</v>
@@ -2899,21 +2892,21 @@
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0" t="n">
-        <v>1475977</v>
+        <v>1475549</v>
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W19" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWER DUST </t>
+          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
         </is>
       </c>
       <c r="Y19" s="0" t="inlineStr">
@@ -2934,11 +2927,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>38057</v>
+        <v>37979</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>EITU1104261</t>
+          <t>EISU1735258</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -2946,7 +2939,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -2961,7 +2954,7 @@
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
@@ -2984,17 +2977,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L20" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N20" s="0"/>
+      <c r="L20" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="0" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>0</v>
@@ -3008,21 +3001,21 @@
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="0" t="n">
-        <v>1475982</v>
+        <v>1475549</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W20" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWER DUST </t>
+          <t>EXTERNAL PANEL RUSTED CORROSION BADLY.</t>
         </is>
       </c>
       <c r="Y20" s="0" t="inlineStr">
@@ -3043,11 +3036,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>38063</v>
+        <v>37979</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>HMCU1065789</t>
+          <t>EISU1735258</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3070,7 +3063,7 @@
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
@@ -3093,17 +3086,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L21" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N21" s="0"/>
+      <c r="L21" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N21" s="4"/>
       <c r="O21" s="0" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>0</v>
@@ -3117,7 +3110,7 @@
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="0" t="n">
-        <v>1475998</v>
+        <v>1475549</v>
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
@@ -3126,12 +3119,12 @@
       </c>
       <c r="W21" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWER DUST</t>
+          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; SCRATCHED</t>
         </is>
       </c>
       <c r="Y21" s="0" t="inlineStr">
@@ -3152,11 +3145,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>39703</v>
+        <v>37991</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>TLLU4011340</t>
+          <t>EISU9048303</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3179,40 +3172,40 @@
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>ROBERT RICKMERS-805E</t>
+          <t/>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>2018/2675</t>
+          <t/>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N22" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N22" s="4"/>
       <c r="O22" s="0" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0</v>
@@ -3226,46 +3219,22 @@
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0" t="n">
-        <v>1480381</v>
-      </c>
-      <c r="V22" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W22" s="0" t="inlineStr">
-        <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1475673</v>
+      </c>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>39801</v>
+        <v>37995</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>TCLU6349404</t>
+          <t>LTIU6058415</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3273,7 +3242,7 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
@@ -3288,7 +3257,7 @@
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
@@ -3298,30 +3267,30 @@
       </c>
       <c r="I23" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE-816E</t>
+          <t/>
         </is>
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>2018/2774</t>
+          <t/>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L23" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="M23" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N23" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N23" s="4"/>
       <c r="O23" s="0" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>0</v>
@@ -3335,21 +3304,21 @@
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="0" t="n">
-        <v>1480544</v>
+        <v>1475683</v>
       </c>
       <c r="V23" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W23" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X23" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY.</t>
+          <t>DOOR FRAME &amp; GASKET AREA RUSTED CORROSION BADLY</t>
         </is>
       </c>
       <c r="Y23" s="0" t="inlineStr">
@@ -3370,11 +3339,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>39801</v>
+        <v>37995</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>TCLU6349404</t>
+          <t>LTIU6058415</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3382,7 +3351,7 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
@@ -3397,7 +3366,7 @@
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H24" s="0" t="inlineStr">
@@ -3407,30 +3376,30 @@
       </c>
       <c r="I24" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE-816E</t>
+          <t/>
         </is>
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>2018/2774</t>
+          <t/>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L24" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="M24" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N24" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N24" s="4"/>
       <c r="O24" s="0" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>0</v>
@@ -3444,21 +3413,21 @@
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="0" t="n">
-        <v>1480544</v>
+        <v>1475683</v>
       </c>
       <c r="V24" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W24" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY SAND DUST &amp; ODOUR </t>
+          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
         </is>
       </c>
       <c r="Y24" s="0" t="inlineStr">
@@ -3479,11 +3448,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>39854</v>
+        <v>37995</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>BMOU5452324</t>
+          <t>LTIU6058415</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3491,7 +3460,7 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
@@ -3516,30 +3485,30 @@
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE-816E</t>
+          <t/>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>2018/2774</t>
+          <t/>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="M25" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N25" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N25" s="4"/>
       <c r="O25" s="0" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>0</v>
@@ -3553,7 +3522,7 @@
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="0" t="n">
-        <v>1480678</v>
+        <v>1475683</v>
       </c>
       <c r="V25" s="0" t="inlineStr">
         <is>
@@ -3567,7 +3536,7 @@
       </c>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL INK DIRTY.</t>
+          <t>EXTERNAL PANEL RUSTED CORROSION. BADLY</t>
         </is>
       </c>
       <c r="Y25" s="0" t="inlineStr">
@@ -3588,11 +3557,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>39854</v>
+        <v>37995</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>BMOU5452324</t>
+          <t>LTIU6058415</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3600,7 +3569,7 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
@@ -3625,30 +3594,30 @@
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE-816E</t>
+          <t/>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>2018/2774</t>
+          <t/>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L26" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="M26" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N26" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="d">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="0" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>0</v>
@@ -3662,7 +3631,7 @@
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="0" t="n">
-        <v>1480678</v>
+        <v>1475683</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
@@ -3671,12 +3640,12 @@
       </c>
       <c r="W26" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY SCRATCHED,OIL STAIN,BLACK STAIN &amp; DUST.</t>
+          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
         </is>
       </c>
       <c r="Y26" s="0" t="inlineStr">
@@ -3697,11 +3666,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>39911</v>
+        <v>38054</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>TCLU7832989</t>
+          <t>SEGU5297740</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3724,7 +3693,7 @@
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H27" s="0" t="inlineStr">
@@ -3747,31 +3716,31 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L27" s="0" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="M27" s="0" t="inlineStr">
+      <c r="L27" s="4" t="d">
+        <v>2018-09-07T00:00:00</v>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N27" s="0"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="0" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R27" s="0"/>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="0" t="n">
-        <v>1472274</v>
+        <v>1475976</v>
       </c>
       <c r="V27" s="0"/>
       <c r="W27" s="0"/>
@@ -3782,11 +3751,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>37745</v>
+        <v>38055</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>BMOU4820632</t>
+          <t>HMCU1068617</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -3794,7 +3763,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -3809,7 +3778,7 @@
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H28" s="0" t="inlineStr">
@@ -3832,17 +3801,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L28" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M28" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N28" s="0"/>
+      <c r="L28" s="4" t="d">
+        <v>2018-09-07T00:00:00</v>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="0" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
@@ -3856,21 +3825,21 @@
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="0" t="n">
-        <v>1474173</v>
+        <v>1475977</v>
       </c>
       <c r="V28" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W28" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL INK DIRTY.</t>
+          <t>FLOOR BOARD DIRTY BY MILK POWER DUST </t>
         </is>
       </c>
       <c r="Y28" s="0" t="inlineStr">
@@ -3891,11 +3860,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>37745</v>
+        <v>38057</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>BMOU4820632</t>
+          <t>EITU1104261</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -3918,7 +3887,7 @@
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H29" s="0" t="inlineStr">
@@ -3941,17 +3910,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L29" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M29" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N29" s="0"/>
+      <c r="L29" s="4" t="d">
+        <v>2018-09-07T00:00:00</v>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="0" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -3965,7 +3934,7 @@
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="0" t="n">
-        <v>1474173</v>
+        <v>1475982</v>
       </c>
       <c r="V29" s="0" t="inlineStr">
         <is>
@@ -3979,7 +3948,7 @@
       </c>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY DUST .</t>
+          <t>FLOOR BOARD DIRTY BY MILK POWER DUST </t>
         </is>
       </c>
       <c r="Y29" s="0" t="inlineStr">
@@ -4000,11 +3969,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>37892</v>
+        <v>38063</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>HMCU1052930</t>
+          <t>HMCU1065789</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4027,7 +3996,7 @@
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H30" s="0" t="inlineStr">
@@ -4050,17 +4019,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L30" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M30" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N30" s="0"/>
+      <c r="L30" s="4" t="d">
+        <v>2018-09-07T00:00:00</v>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="0" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>0</v>
@@ -4074,7 +4043,7 @@
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="0" t="n">
-        <v>1475033</v>
+        <v>1475998</v>
       </c>
       <c r="V30" s="0" t="inlineStr">
         <is>
@@ -4088,7 +4057,7 @@
       </c>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY DUST.</t>
+          <t>FLOOR BOARD DIRTY BY MILK POWER DUST</t>
         </is>
       </c>
       <c r="Y30" s="0" t="inlineStr">
@@ -4109,15 +4078,15 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>37893</v>
+        <v>39306</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>HMCU1001547</t>
+          <t>OCGU2021236</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
@@ -4136,40 +4105,40 @@
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>ROBERT RICKMERS-805E</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/2675</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M31" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="d">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N31" s="0"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="0" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0</v>
@@ -4183,7 +4152,7 @@
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0" t="n">
-        <v>1475057</v>
+        <v>1479663</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
@@ -4197,7 +4166,7 @@
       </c>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY DUST.</t>
+          <t>FLOOR BOARD DIRTY BY WHITE POWDER DUST</t>
         </is>
       </c>
       <c r="Y31" s="0" t="inlineStr">
@@ -4218,11 +4187,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>37901</v>
+        <v>39703</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>TCNU7359600</t>
+          <t>TLLU4011340</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4245,40 +4214,40 @@
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>ROBERT RICKMERS-805E</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/2675</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M32" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N32" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="0" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>0</v>
@@ -4292,22 +4261,46 @@
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="0" t="n">
-        <v>1475073</v>
-      </c>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0"/>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
-      <c r="AA32" s="0"/>
+        <v>1480381</v>
+      </c>
+      <c r="V32" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Y32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>37991</v>
+        <v>39801</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>EISU9048303</t>
+          <t>TCLU6349404</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4330,7 +4323,7 @@
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H33" s="0" t="inlineStr">
@@ -4340,30 +4333,30 @@
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>HAPPY BEE-816E</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/2774</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L33" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M33" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N33" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="0" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>0</v>
@@ -4377,22 +4370,46 @@
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="0" t="n">
-        <v>1475673</v>
-      </c>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0"/>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
+        <v>1480544</v>
+      </c>
+      <c r="V33" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="W33" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="X33" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY.</t>
+        </is>
+      </c>
+      <c r="Y33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>37995</v>
+        <v>39801</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>LTIU6058415</t>
+          <t>TCLU6349404</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4400,7 +4417,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -4415,7 +4432,7 @@
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H34" s="0" t="inlineStr">
@@ -4425,30 +4442,30 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>HAPPY BEE-816E</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/2774</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L34" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M34" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N34" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="0" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
@@ -4462,21 +4479,21 @@
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
       <c r="U34" s="0" t="n">
-        <v>1475683</v>
+        <v>1480544</v>
       </c>
       <c r="V34" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W34" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X34" s="0" t="inlineStr">
         <is>
-          <t>DOOR FRAME &amp; GASKET AREA RUSTED CORROSION BADLY</t>
+          <t>F/B DIRTY BY SAND DUST &amp; ODOUR </t>
         </is>
       </c>
       <c r="Y34" s="0" t="inlineStr">
@@ -4497,11 +4514,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>37995</v>
+        <v>39820</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>LTIU6058415</t>
+          <t>EISU9206029</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4509,7 +4526,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -4534,30 +4551,30 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>HAPPY BEE-816E</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/2774</t>
         </is>
       </c>
       <c r="K35" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L35" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M35" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N35" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="0" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
@@ -4571,21 +4588,21 @@
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="0" t="n">
-        <v>1475683</v>
+        <v>1480593</v>
       </c>
       <c r="V35" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W35" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
+          <t>R/D HINGS JAM &amp; HARD FITTING.</t>
         </is>
       </c>
       <c r="Y35" s="0" t="inlineStr">
@@ -4606,11 +4623,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>37995</v>
+        <v>39820</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>LTIU6058415</t>
+          <t>EISU9206029</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4618,7 +4635,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -4643,30 +4660,30 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>HAPPY BEE-816E</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/2774</t>
         </is>
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L36" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M36" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N36" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N36" s="4"/>
       <c r="O36" s="0" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>0</v>
@@ -4680,7 +4697,7 @@
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="0" t="n">
-        <v>1475683</v>
+        <v>1480593</v>
       </c>
       <c r="V36" s="0" t="inlineStr">
         <is>
@@ -4694,7 +4711,7 @@
       </c>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION. BADLY</t>
+          <t>INTERNAL PANEL INK DIRTY .</t>
         </is>
       </c>
       <c r="Y36" s="0" t="inlineStr">
@@ -4715,11 +4732,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>37995</v>
+        <v>39820</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>LTIU6058415</t>
+          <t>EISU9206029</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -4727,7 +4744,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -4752,30 +4769,30 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>HAPPY BEE-816E</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/2774</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="M37" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N37" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N37" s="4"/>
       <c r="O37" s="0" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>0</v>
@@ -4789,7 +4806,7 @@
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="0" t="n">
-        <v>1475683</v>
+        <v>1480593</v>
       </c>
       <c r="V37" s="0" t="inlineStr">
         <is>
@@ -4798,12 +4815,12 @@
       </c>
       <c r="W37" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MILK POWDER DUST &amp; ODOUR</t>
+          <t>F/B BADLY SAND DUST &amp; ODOUR.</t>
         </is>
       </c>
       <c r="Y37" s="0" t="inlineStr">
@@ -4824,19 +4841,19 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>39306</v>
+        <v>39840</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>OCGU2021236</t>
+          <t>OCGU8018190</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -4851,22 +4868,22 @@
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>ROBERT RICKMERS-805E</t>
+          <t>HAPPY BEE-816E</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>2018/2675</t>
+          <t>2018/2774</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
@@ -4874,17 +4891,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L38" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="M38" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N38" s="0"/>
+      <c r="L38" s="4" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N38" s="4"/>
       <c r="O38" s="0" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>0</v>
@@ -4898,21 +4915,21 @@
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="0" t="n">
-        <v>1479663</v>
+        <v>1480651</v>
       </c>
       <c r="V38" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W38" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY WHITE POWDER DUST</t>
+          <t>INTERNAL PANEL INK DIRTY &amp; SCRATCHED.</t>
         </is>
       </c>
       <c r="Y38" s="0" t="inlineStr">
@@ -4933,11 +4950,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>39820</v>
+        <v>39840</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>EISU9206029</t>
+          <t>OCGU8018190</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -4983,15 +5000,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L39" s="0" t="d">
+      <c r="L39" s="4" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="M39" s="0" t="inlineStr">
+      <c r="M39" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N39" s="0"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="0" t="n">
         <v>72</v>
       </c>
@@ -5007,21 +5024,21 @@
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="0" t="n">
-        <v>1480593</v>
+        <v>1480651</v>
       </c>
       <c r="V39" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W39" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X39" s="0" t="inlineStr">
         <is>
-          <t>R/D HINGS JAM &amp; HARD FITTING.</t>
+          <t>F/B DIRTY BY TYER MARK,BLACK STAIN &amp; DUST.</t>
         </is>
       </c>
       <c r="Y39" s="0" t="inlineStr">
@@ -5042,19 +5059,19 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>39820</v>
+        <v>39842</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>EISU9206029</t>
+          <t>EITU0311330</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -5069,22 +5086,22 @@
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE-816E</t>
+          <t>M GOUGH</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>2018/2774</t>
+          <t>1854/18</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
@@ -5092,15 +5109,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L40" s="0" t="d">
+      <c r="L40" s="4" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="M40" s="0" t="inlineStr">
+      <c r="M40" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N40" s="0"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="0" t="n">
         <v>72</v>
       </c>
@@ -5116,7 +5133,7 @@
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
       <c r="U40" s="0" t="n">
-        <v>1480593</v>
+        <v>1480654</v>
       </c>
       <c r="V40" s="0" t="inlineStr">
         <is>
@@ -5130,7 +5147,7 @@
       </c>
       <c r="X40" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL INK DIRTY .</t>
+          <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
       <c r="Y40" s="0" t="inlineStr">
@@ -5151,19 +5168,19 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>39820</v>
+        <v>39842</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>EISU9206029</t>
+          <t>EITU0311330</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
@@ -5178,22 +5195,22 @@
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE-816E</t>
+          <t>M GOUGH</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>2018/2774</t>
+          <t>1854/18</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
@@ -5201,15 +5218,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L41" s="0" t="d">
+      <c r="L41" s="4" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="M41" s="0" t="inlineStr">
+      <c r="M41" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N41" s="0"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="0" t="n">
         <v>72</v>
       </c>
@@ -5225,7 +5242,7 @@
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="0" t="n">
-        <v>1480593</v>
+        <v>1480654</v>
       </c>
       <c r="V41" s="0" t="inlineStr">
         <is>
@@ -5239,7 +5256,7 @@
       </c>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>F/B BADLY SAND DUST &amp; ODOUR.</t>
+          <t>F/BOARD DIRTY BY DUST.</t>
         </is>
       </c>
       <c r="Y41" s="0" t="inlineStr">
@@ -5260,11 +5277,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>39840</v>
+        <v>39854</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>OCGU8018190</t>
+          <t>BMOU5452324</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5310,15 +5327,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L42" s="0" t="d">
+      <c r="L42" s="4" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="M42" s="0" t="inlineStr">
+      <c r="M42" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N42" s="0"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="0" t="n">
         <v>72</v>
       </c>
@@ -5334,7 +5351,7 @@
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
       <c r="U42" s="0" t="n">
-        <v>1480651</v>
+        <v>1480678</v>
       </c>
       <c r="V42" s="0" t="inlineStr">
         <is>
@@ -5348,7 +5365,7 @@
       </c>
       <c r="X42" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL INK DIRTY &amp; SCRATCHED.</t>
+          <t>INTERNAL PANEL INK DIRTY.</t>
         </is>
       </c>
       <c r="Y42" s="0" t="inlineStr">
@@ -5369,11 +5386,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>39840</v>
+        <v>39854</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>OCGU8018190</t>
+          <t>BMOU5452324</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5419,15 +5436,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L43" s="0" t="d">
+      <c r="L43" s="4" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="M43" s="0" t="inlineStr">
+      <c r="M43" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N43" s="0"/>
+      <c r="N43" s="4"/>
       <c r="O43" s="0" t="n">
         <v>72</v>
       </c>
@@ -5443,7 +5460,7 @@
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="0" t="n">
-        <v>1480651</v>
+        <v>1480678</v>
       </c>
       <c r="V43" s="0" t="inlineStr">
         <is>
@@ -5457,7 +5474,7 @@
       </c>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY TYER MARK,BLACK STAIN &amp; DUST.</t>
+          <t>F/B DIRTY BY SCRATCHED,OIL STAIN,BLACK STAIN &amp; DUST.</t>
         </is>
       </c>
       <c r="Y43" s="0" t="inlineStr">
@@ -5478,19 +5495,19 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>39842</v>
+        <v>39911</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>EITU0311330</t>
+          <t>TCLU7832989</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -5505,194 +5522,61 @@
       </c>
       <c r="G44" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>M GOUGH</t>
+          <t/>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>1854/18</t>
+          <t/>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L44" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="M44" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N44" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="d">
+        <v>2018-08-30T00:00:00</v>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N44" s="4"/>
       <c r="O44" s="0" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R44" s="0"/>
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="0" t="n">
-        <v>1480654</v>
-      </c>
-      <c r="V44" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
-      <c r="W44" s="0" t="inlineStr">
-        <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="X44" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY.</t>
-        </is>
-      </c>
-      <c r="Y44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="n">
-        <v>39842</v>
-      </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>EITU0311330</t>
-        </is>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D45" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="G45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="H45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I45" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="J45" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="K45" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="M45" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="0" t="n">
-        <v>1480654</v>
-      </c>
-      <c r="V45" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W45" s="0" t="inlineStr">
-        <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="X45" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1472274</v>
+      </c>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0"/>
+      <c r="X44" s="0"/>
+      <c r="Y44" s="0"/>
+      <c r="Z44" s="0"/>
+      <c r="AA44" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -5715,23 +5599,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -5741,78 +5625,117 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>EMC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Stock Report Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
           <t>EMC</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Stock Report Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5828,32 +5751,32 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>40-GP</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -5869,20 +5792,20 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>40-GP</t>
+          <t>40-HC</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -5894,47 +5817,6 @@
         <v>11</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>BRS</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>EMC</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>40-HC</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K9" s="0" t="n">
         <v>22</v>
       </c>
     </row>
